--- a/20 proznostni-modul/proznostni-modul.xlsx
+++ b/20 proznostni-modul/proznostni-modul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archW\Desktop\faks\fizikalni-praktikum\20 proznostni-modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781FBD7B-65DC-455C-AE5A-A9DB77B4FBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E005FB-B987-490D-AD17-4C0E8F37051E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13520" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="707" yWindow="707" windowWidth="15000" windowHeight="9720" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3160,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
